--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\code\vaelects\db_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C8F84D-532D-4C4A-9CBF-CF46DB01FCA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC27CA-C404-4861-864F-0BD5A6A33996}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="558">
   <si>
     <t>id</t>
   </si>
@@ -1695,6 +1695,24 @@
   </si>
   <si>
     <t>https://senatorbillcarrico.com/</t>
+  </si>
+  <si>
+    <t>Connie</t>
+  </si>
+  <si>
+    <t>Hutchinson</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>http://www.conniehutchinson.com/</t>
+  </si>
+  <si>
+    <t>Linnard</t>
+  </si>
+  <si>
+    <t>Harris Jr</t>
   </si>
 </sst>
 </file>
@@ -2048,10 +2066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5951,6 +5969,58 @@
       </c>
       <c r="J147">
         <v>3401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2111</v>
+      </c>
+      <c r="B148" t="s">
+        <v>552</v>
+      </c>
+      <c r="D148" t="s">
+        <v>553</v>
+      </c>
+      <c r="E148" t="s">
+        <v>555</v>
+      </c>
+      <c r="F148" t="s">
+        <v>554</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148">
+        <v>86</v>
+      </c>
+      <c r="J148">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2121</v>
+      </c>
+      <c r="B149" t="s">
+        <v>556</v>
+      </c>
+      <c r="C149" t="s">
+        <v>184</v>
+      </c>
+      <c r="D149" t="s">
+        <v>557</v>
+      </c>
+      <c r="F149" t="s">
+        <v>554</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149">
+        <v>70</v>
+      </c>
+      <c r="J149">
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\code\vaelects\db_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC27CA-C404-4861-864F-0BD5A6A33996}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983195D-B0F7-46D6-A762-7ACBBE2F3E71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="president" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vahouse!$A$1:$J$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vahouse!$A$1:$J$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vasenate!$A$1:$J$62</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -1713,6 +1713,24 @@
   </si>
   <si>
     <t>Harris Jr</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>https://www.philforvirginia.com/</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Minchew</t>
+  </si>
+  <si>
+    <t>http://www.delegaterandyminchew.com/</t>
   </si>
 </sst>
 </file>
@@ -2065,11 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2114,7 +2131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21</v>
       </c>
@@ -2169,7 +2186,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -2250,7 +2267,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>41</v>
       </c>
@@ -2279,7 +2296,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>31</v>
       </c>
@@ -2387,7 +2404,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>81</v>
       </c>
@@ -2416,7 +2433,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>101</v>
       </c>
@@ -2445,7 +2462,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>111</v>
       </c>
@@ -2529,7 +2546,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>141</v>
       </c>
@@ -2558,7 +2575,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>151</v>
       </c>
@@ -2584,7 +2601,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>171</v>
       </c>
@@ -2613,7 +2630,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>161</v>
       </c>
@@ -3887,7 +3904,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>201</v>
       </c>
@@ -4618,7 +4635,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>211</v>
       </c>
@@ -4673,7 +4690,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>221</v>
       </c>
@@ -4907,7 +4924,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>91</v>
       </c>
@@ -4936,7 +4953,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>231</v>
       </c>
@@ -4965,7 +4982,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>241</v>
       </c>
@@ -5502,7 +5519,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -5531,7 +5548,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>261</v>
       </c>
@@ -5557,7 +5574,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>271</v>
       </c>
@@ -5586,7 +5603,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>251</v>
       </c>
@@ -5722,7 +5739,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>281</v>
       </c>
@@ -5754,7 +5771,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>291</v>
       </c>
@@ -5861,7 +5878,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>301</v>
       </c>
@@ -5890,7 +5907,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>311</v>
       </c>
@@ -5919,7 +5936,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>321</v>
       </c>
@@ -6023,11 +6040,80 @@
         <v>821</v>
       </c>
     </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2131</v>
+      </c>
+      <c r="B150" t="s">
+        <v>136</v>
+      </c>
+      <c r="D150" t="s">
+        <v>422</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150">
+        <v>20</v>
+      </c>
+      <c r="J150">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>558</v>
+      </c>
+      <c r="D151" t="s">
+        <v>559</v>
+      </c>
+      <c r="E151" t="s">
+        <v>560</v>
+      </c>
+      <c r="F151" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151">
+        <v>100</v>
+      </c>
+      <c r="J151">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>561</v>
+      </c>
+      <c r="D152" t="s">
+        <v>562</v>
+      </c>
+      <c r="E152" t="s">
+        <v>563</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J147" xr:uid="{ADC064D7-5AEA-402B-8A8A-B65A7940D90B}">
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
+  <autoFilter ref="A1:J149" xr:uid="{ADC064D7-5AEA-402B-8A8A-B65A7940D90B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J147">
       <sortCondition ref="H1:H147"/>
     </sortState>
@@ -6041,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\code\vaelects\db_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983195D-B0F7-46D6-A762-7ACBBE2F3E71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0109CDBC-E60D-4D42-8051-435C816FE257}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vahouse" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="572">
   <si>
     <t>id</t>
   </si>
@@ -1731,16 +1731,48 @@
   </si>
   <si>
     <t>http://www.delegaterandyminchew.com/</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Laufer</t>
+  </si>
+  <si>
+    <t>Geary</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>https://www.powellsenateva.com/</t>
+  </si>
+  <si>
+    <t>https://www.lauferforvirginia.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1763,14 +1795,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2085,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
@@ -6125,10 +6160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7907,8 +7942,94 @@
         <v>2261</v>
       </c>
     </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2161</v>
+      </c>
+      <c r="B63" t="s">
+        <v>564</v>
+      </c>
+      <c r="D63" t="s">
+        <v>565</v>
+      </c>
+      <c r="E63" t="s">
+        <v>570</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>406</v>
+      </c>
+      <c r="H63">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2171</v>
+      </c>
+      <c r="B64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D64" t="s">
+        <v>567</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>406</v>
+      </c>
+      <c r="H64">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>568</v>
+      </c>
+      <c r="D65" t="s">
+        <v>569</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>406</v>
+      </c>
+      <c r="H65">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65">
+        <v>1781</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J62" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <hyperlinks>
+    <hyperlink ref="E64" r:id="rId1" xr:uid="{7D1DC84B-8DC4-4F66-BB50-F57DA37F974D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vahouse" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="580">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1281,6 +1281,15 @@
     <t xml:space="preserve">Wolfe</t>
   </si>
   <si>
+    <t xml:space="preserve">Rich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.richanderson.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monty</t>
   </si>
   <si>
@@ -1492,9 +1501,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich</t>
   </si>
   <si>
     <t xml:space="preserve">Breeden</t>
@@ -1943,10 +1949,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I154" activeCellId="0" sqref="I154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A155" activeCellId="0" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5999,6 +6005,32 @@
       </c>
       <c r="J153" s="0" t="n">
         <v>3101</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <v>3471</v>
       </c>
     </row>
   </sheetData>
@@ -6021,8 +6053,8 @@
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H72" activeCellId="0" sqref="H72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N75" activeCellId="0" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6067,19 +6099,19 @@
         <v>461</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -6096,19 +6128,19 @@
         <v>471</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2</v>
@@ -6125,19 +6157,19 @@
         <v>481</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>237</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>3</v>
@@ -6157,16 +6189,16 @@
         <v>208</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>3</v>
@@ -6183,16 +6215,16 @@
         <v>501</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>4</v>
@@ -6209,19 +6241,19 @@
         <v>511</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>5</v>
@@ -6241,13 +6273,13 @@
         <v>90</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>5</v>
@@ -6264,19 +6296,19 @@
         <v>331</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>409</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>6</v>
@@ -6293,16 +6325,16 @@
         <v>341</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>6</v>
@@ -6319,19 +6351,19 @@
         <v>531</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>7</v>
@@ -6348,22 +6380,22 @@
         <v>541</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>8</v>
@@ -6380,19 +6412,19 @@
         <v>551</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>8</v>
@@ -6412,16 +6444,16 @@
         <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>9</v>
@@ -6441,16 +6473,16 @@
         <v>205</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>10</v>
@@ -6467,16 +6499,16 @@
         <v>361</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>10</v>
@@ -6493,19 +6525,19 @@
         <v>571</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>10</v>
@@ -6522,19 +6554,19 @@
         <v>571</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>11</v>
@@ -6551,19 +6583,19 @@
         <v>591</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>11</v>
@@ -6580,16 +6612,16 @@
         <v>371</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>12</v>
@@ -6606,19 +6638,19 @@
         <v>381</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>237</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>12</v>
@@ -6635,19 +6667,19 @@
         <v>601</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
@@ -6670,13 +6702,13 @@
         <v>192</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>13</v>
@@ -6693,16 +6725,16 @@
         <v>401</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>13</v>
@@ -6719,19 +6751,19 @@
         <v>411</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>13</v>
@@ -6751,16 +6783,16 @@
         <v>385</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>13</v>
@@ -6777,19 +6809,19 @@
         <v>621</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>13</v>
@@ -6809,13 +6841,13 @@
         <v>160</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>14</v>
@@ -6832,19 +6864,19 @@
         <v>641</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>15</v>
@@ -6861,16 +6893,16 @@
         <v>651</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>16</v>
@@ -6887,16 +6919,16 @@
         <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>17</v>
@@ -6913,19 +6945,19 @@
         <v>61</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>17</v>
@@ -6942,19 +6974,19 @@
         <v>71</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>17</v>
@@ -6971,16 +7003,16 @@
         <v>661</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>18</v>
@@ -7000,13 +7032,13 @@
         <v>113</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>19</v>
@@ -7023,19 +7055,19 @@
         <v>681</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>20</v>
@@ -7058,13 +7090,13 @@
         <v>401</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>21</v>
@@ -7084,16 +7116,16 @@
         <v>129</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>22</v>
@@ -7113,16 +7145,16 @@
         <v>144</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>23</v>
@@ -7139,19 +7171,19 @@
         <v>721</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>24</v>
@@ -7168,19 +7200,19 @@
         <v>731</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>24</v>
@@ -7197,19 +7229,19 @@
         <v>741</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>25</v>
@@ -7226,19 +7258,19 @@
         <v>751</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>26</v>
@@ -7258,16 +7290,16 @@
         <v>129</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>26</v>
@@ -7287,16 +7319,16 @@
         <v>139</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>27</v>
@@ -7313,19 +7345,19 @@
         <v>781</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>27</v>
@@ -7342,19 +7374,19 @@
         <v>791</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>28</v>
@@ -7371,19 +7403,19 @@
         <v>801</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>29</v>
@@ -7400,19 +7432,19 @@
         <v>811</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>30</v>
@@ -7429,19 +7461,19 @@
         <v>421</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>31</v>
@@ -7461,16 +7493,16 @@
         <v>379</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>31</v>
@@ -7487,19 +7519,19 @@
         <v>821</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>32</v>
@@ -7516,19 +7548,19 @@
         <v>831</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>33</v>
@@ -7548,16 +7580,16 @@
         <v>15</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>33</v>
@@ -7574,19 +7606,19 @@
         <v>851</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>34</v>
@@ -7603,19 +7635,19 @@
         <v>441</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>35</v>
@@ -7632,22 +7664,22 @@
         <v>451</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>35</v>
@@ -7667,16 +7699,16 @@
         <v>32</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>36</v>
@@ -7696,16 +7728,16 @@
         <v>172</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>37</v>
@@ -7722,19 +7754,19 @@
         <v>881</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>38</v>
@@ -7751,16 +7783,16 @@
         <v>891</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>39</v>
@@ -7777,19 +7809,19 @@
         <v>901</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>40</v>
@@ -7806,19 +7838,19 @@
         <v>2161</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>11</v>
@@ -7835,19 +7867,19 @@
         <v>2171</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>17</v>
@@ -7864,16 +7896,16 @@
         <v>2181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>13</v>
@@ -7890,19 +7922,19 @@
         <v>2201</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>19</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>7</v>
@@ -7919,19 +7951,19 @@
         <v>2211</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>163</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>24</v>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\code\vaelects\db_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159601F-8AE4-4426-A6E4-C4625CEBBF1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6621DFEC-15EB-422F-A9D5-0680F161281E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="588">
   <si>
     <t>id</t>
   </si>
@@ -1785,6 +1785,24 @@
   </si>
   <si>
     <t>Harrison</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>Runion</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Wampler III</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -2215,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2924,32 +2942,6 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>951</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="J26">
-        <v>2311</v>
-      </c>
-    </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>961</v>
@@ -3515,9 +3507,6 @@
       <c r="H48">
         <v>25</v>
       </c>
-      <c r="J48">
-        <v>2471</v>
-      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
@@ -6320,6 +6309,52 @@
       </c>
       <c r="J155">
         <v>3481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>10031</v>
+      </c>
+      <c r="B156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" t="s">
+        <v>583</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156">
+        <v>25</v>
+      </c>
+      <c r="J156">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>263</v>
+      </c>
+      <c r="C157" t="s">
+        <v>584</v>
+      </c>
+      <c r="D157" t="s">
+        <v>585</v>
+      </c>
+      <c r="F157" t="s">
+        <v>587</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6331,10 +6366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8109,9 +8144,6 @@
       <c r="I62" t="s">
         <v>14</v>
       </c>
-      <c r="J62">
-        <v>2261</v>
-      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -8253,6 +8285,61 @@
       </c>
       <c r="J67">
         <v>2211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>951</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>423</v>
+      </c>
+      <c r="H68">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>10021</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" t="s">
+        <v>582</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>423</v>
+      </c>
+      <c r="H69">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>2261</v>
       </c>
     </row>
   </sheetData>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="613">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1323,6 +1323,39 @@
     <t xml:space="preserve">Pattie</t>
   </si>
   <si>
+    <t xml:space="preserve">Heather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mitchellfordelegate.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.worthfordelegate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adragna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GayDonna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandergriff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gaydonnavandergriff.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monty</t>
   </si>
   <si>
@@ -1807,6 +1840,33 @@
   </si>
   <si>
     <t xml:space="preserve">Heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hippenforva.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zachary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zacharyforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturdifen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sellers</t>
   </si>
 </sst>
 </file>
@@ -1988,10 +2048,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I96" activeCellId="0" sqref="I96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6226,6 +6286,119 @@
       </c>
       <c r="K161" s="0" t="n">
         <v>371</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>10131</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <v>3501</v>
+      </c>
+      <c r="K162" s="0" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>10141</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <v>3511</v>
+      </c>
+      <c r="K163" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>10151</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <v>3521</v>
+      </c>
+      <c r="K164" s="0" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>10161</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <v>3531</v>
+      </c>
+      <c r="K165" s="0" t="n">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -6246,15 +6419,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6294,19 +6469,19 @@
         <v>461</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -6323,19 +6498,19 @@
         <v>471</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2</v>
@@ -6352,19 +6527,19 @@
         <v>481</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>3</v>
@@ -6384,16 +6559,16 @@
         <v>207</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>3</v>
@@ -6410,16 +6585,16 @@
         <v>501</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>4</v>
@@ -6436,19 +6611,19 @@
         <v>511</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>434</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>5</v>
@@ -6468,13 +6643,13 @@
         <v>89</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>5</v>
@@ -6491,19 +6666,19 @@
         <v>331</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>409</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>6</v>
@@ -6520,16 +6695,16 @@
         <v>341</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>6</v>
@@ -6546,19 +6721,19 @@
         <v>531</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>7</v>
@@ -6572,22 +6747,22 @@
         <v>541</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>8</v>
@@ -6604,19 +6779,19 @@
         <v>551</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>8</v>
@@ -6636,16 +6811,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>9</v>
@@ -6665,16 +6840,16 @@
         <v>204</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>10</v>
@@ -6691,16 +6866,16 @@
         <v>361</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>10</v>
@@ -6717,19 +6892,19 @@
         <v>571</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>10</v>
@@ -6746,19 +6921,19 @@
         <v>571</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>11</v>
@@ -6775,19 +6950,19 @@
         <v>591</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>11</v>
@@ -6804,16 +6979,16 @@
         <v>371</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>12</v>
@@ -6830,19 +7005,19 @@
         <v>381</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>12</v>
@@ -6859,19 +7034,19 @@
         <v>601</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
@@ -6894,13 +7069,13 @@
         <v>191</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>13</v>
@@ -6917,16 +7092,16 @@
         <v>401</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>13</v>
@@ -6943,19 +7118,19 @@
         <v>411</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>13</v>
@@ -6975,16 +7150,16 @@
         <v>385</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>13</v>
@@ -7001,19 +7176,19 @@
         <v>621</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>13</v>
@@ -7033,13 +7208,13 @@
         <v>159</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>14</v>
@@ -7056,19 +7231,19 @@
         <v>641</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>15</v>
@@ -7085,16 +7260,16 @@
         <v>651</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>16</v>
@@ -7111,16 +7286,16 @@
         <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>17</v>
@@ -7140,16 +7315,16 @@
         <v>417</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>17</v>
@@ -7166,19 +7341,19 @@
         <v>71</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>17</v>
@@ -7195,16 +7370,16 @@
         <v>661</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>18</v>
@@ -7224,13 +7399,13 @@
         <v>112</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>19</v>
@@ -7247,19 +7422,19 @@
         <v>681</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>20</v>
@@ -7282,13 +7457,13 @@
         <v>401</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>21</v>
@@ -7308,16 +7483,16 @@
         <v>128</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>22</v>
@@ -7337,16 +7512,16 @@
         <v>143</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>23</v>
@@ -7363,19 +7538,19 @@
         <v>721</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>24</v>
@@ -7392,19 +7567,19 @@
         <v>731</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>24</v>
@@ -7421,19 +7596,19 @@
         <v>741</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>25</v>
@@ -7450,19 +7625,19 @@
         <v>751</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>26</v>
@@ -7482,16 +7657,16 @@
         <v>128</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>26</v>
@@ -7511,16 +7686,16 @@
         <v>138</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>27</v>
@@ -7537,19 +7712,19 @@
         <v>781</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>27</v>
@@ -7569,16 +7744,16 @@
         <v>428</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>28</v>
@@ -7595,19 +7770,19 @@
         <v>801</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>29</v>
@@ -7624,19 +7799,19 @@
         <v>811</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>30</v>
@@ -7653,19 +7828,19 @@
         <v>421</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>31</v>
@@ -7685,16 +7860,16 @@
         <v>379</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>31</v>
@@ -7711,19 +7886,19 @@
         <v>821</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>32</v>
@@ -7740,19 +7915,19 @@
         <v>831</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>33</v>
@@ -7772,16 +7947,16 @@
         <v>16</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>33</v>
@@ -7798,19 +7973,19 @@
         <v>851</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>34</v>
@@ -7827,19 +8002,19 @@
         <v>441</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>35</v>
@@ -7856,22 +8031,22 @@
         <v>451</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>35</v>
@@ -7891,16 +8066,16 @@
         <v>33</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>36</v>
@@ -7920,16 +8095,16 @@
         <v>171</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>37</v>
@@ -7946,19 +8121,19 @@
         <v>881</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>38</v>
@@ -7975,16 +8150,16 @@
         <v>891</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>39</v>
@@ -8001,19 +8176,19 @@
         <v>901</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>40</v>
@@ -8027,19 +8202,19 @@
         <v>2161</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>11</v>
@@ -8056,19 +8231,19 @@
         <v>2171</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>17</v>
@@ -8085,16 +8260,16 @@
         <v>2181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>13</v>
@@ -8111,19 +8286,19 @@
         <v>2201</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>7</v>
@@ -8140,19 +8315,19 @@
         <v>2211</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>162</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>24</v>
@@ -8172,16 +8347,16 @@
         <v>24</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>40</v>
@@ -8201,13 +8376,13 @@
         <v>140</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>40</v>
@@ -8217,6 +8392,116 @@
       </c>
       <c r="J69" s="0" t="n">
         <v>2261</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>10091</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>3461</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>10101</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>1731</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>10111</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>2161</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>10121</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>3541</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>1401</v>
       </c>
     </row>
   </sheetData>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vahouse" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
     <sheet name="president" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">vahouse!$A$1:$J$149</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">vahouse!$A$1:$J$148</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">vasenate!$A$1:$J$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="614">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1035,6 +1035,834 @@
     <t xml:space="preserve">https://www.vanvalkenburg4va.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lamontbagby.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roslyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.delegatetyler.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cliffhayes.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heretick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.steveheretick.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.delegatematthewjames.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheryl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turpin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cherylturpinforvb.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibraheem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samirah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://samirah4delegate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhamidipati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subramanyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://suhasforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minhaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hassan4va.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jessfoster.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jayjones.vote/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://delegatejoelindsey.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.michaelwadefordelegate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gatlingfordelegate.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jeionward.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mullin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mullinforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.simondsfordelegate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pricefordelegate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://downeyforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rebeccaforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.edwards4delegate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hutchinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.conniehutchinson.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linnard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris Jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.philforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minchew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.delegaterandyminchew.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.richanderson.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wampler III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mitchellfordelegate.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.worthfordelegate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adragna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GayDonna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandergriff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gaydonnavandergriff.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.masonforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vasenate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.senatorlocke.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://herbjonesforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.senatornorment.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McDougle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spruill Sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.spruillforsenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://lynwoodlewis.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.wagnervasenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smasal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.missyforsenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeSteph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.billdesteph.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McClellan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jennifermcclellan.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bedellforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghazala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturtevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glensturtevant.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pohl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pohlforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.chase4senate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lothe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.veenalothe.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://marquesjones.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siobhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunnavant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dunnavantdelivers.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://voteforjohnbell.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moawad-Barrientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lucerowiley.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.buscher4senate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ronmeyer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosgrove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.senatorfrankruff.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosalyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breeden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.richbreeden.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reeves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brycereeves.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suetterlein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://stanleyforsenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.johnedwardsva.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.peakeforsenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.senatornewman.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://annetteservesva.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.emmetthanger.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.senatordeeds.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aprilmooreforsenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obenshain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.markobenshain.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ronnieross.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.senatorjillvogel.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.stuartforsenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McPike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mcpikeforsenate.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebbin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.adamebbin.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://barbarafavola.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merlene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nicolemerlene.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.janethowell.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharafat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sharafathussainva.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boysko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jenniferboysko.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petersen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fairfaxsenator.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saslaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dicksaslaw.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parinaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yasmineforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surovell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.scottsurovell.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://marsdenforsenate.nationbuilder.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chafin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://benchafin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://senatorbillcarrico.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.powellsenateva.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lauferforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Higgins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://kim4va.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tina4va.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.toddpillion.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hippenforva.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zachary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.zacharyforvirginia.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturdifen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sellers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Debra</t>
   </si>
   <si>
@@ -1042,831 +1870,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://rodmanfordelegate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lamontbagby.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roslyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.delegatetyler.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cliffhayes.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heretick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.steveheretick.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.delegatematthewjames.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mallard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheryl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turpin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cherylturpinforvb.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibraheem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samirah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://samirah4delegate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhamidipati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suhas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subramanyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://suhasforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hassan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minhaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.hassan4va.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.jessfoster.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.jayjones.vote/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindsey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://delegatejoelindsey.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.michaelwadefordelegate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gatling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gatlingfordelegate.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jeionward.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mullin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.mullinforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.simondsfordelegate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pricefordelegate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://downeyforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebecca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rebeccaforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edwards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.edwards4delegate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hutchinson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.conniehutchinson.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linnard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harris Jr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.philforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minchew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.delegaterandyminchew.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.richanderson.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beverly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wampler III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eaton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pattie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitchell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://mitchellfordelegate.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.worthfordelegate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adragna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GayDonna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vandergriff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gaydonnavandergriff.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.masonforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vasenate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mamie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.senatorlocke.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://herbjonesforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.senatornorment.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McDougle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lionell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spruill Sr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.spruillforsenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lynwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://lynwoodlewis.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wagner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.wagnervasenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smasal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.missyforsenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeSteph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.billdesteph.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McClellan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.jennifermcclellan.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bidell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bedellforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghazala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hashmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sturtevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.glensturtevant.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pohl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pohlforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.chase4senate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gupta Lothe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://marquesjones.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siobhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunnavant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dunnavantdelivers.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://voteforjohnbell.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moawad-Barrientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lucerowiley.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.buscher4senate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ronmeyer.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosgrove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.senatorfrankruff.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosalyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breeden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.richbreeden.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reeves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.brycereeves.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suetterlein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://stanleyforsenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.johnedwardsva.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.peakeforsenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.senatornewman.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://annetteservesva.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.emmetthanger.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creigh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.senatordeeds.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aprilmooreforsenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obenshain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.markobenshain.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ronnieross.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.senatorjillvogel.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.stuartforsenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McPike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.mcpikeforsenate.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ebbin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.adamebbin.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://barbarafavola.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merlene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nicolemerlene.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.janethowell.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharafat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hussain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sharafathussainva.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boysko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.jenniferboysko.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petersen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fairfaxsenator.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saslaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dicksaslaw.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parinaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taeb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://yasmineforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surovell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.scottsurovell.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://marsdenforsenate.nationbuilder.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chafin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://benchafin.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://senatorbillcarrico.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wayne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.powellsenateva.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laufer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.lauferforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higgins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://kim4va.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tina4va.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.toddpillion.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hippenforva.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zachary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.zacharyforvirginia.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sturdifen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sellers</t>
   </si>
 </sst>
 </file>
@@ -2048,10 +2051,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E161" activeCellId="0" sqref="E161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5232,7 +5235,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>1941</v>
+        <v>1951</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>335</v>
@@ -5250,15 +5253,15 @@
         <v>14</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>3411</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>338</v>
@@ -5276,15 +5279,15 @@
         <v>14</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>3251</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>1961</v>
+        <v>1971</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>341</v>
@@ -5302,25 +5305,25 @@
         <v>14</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>3261</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="B125" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D125" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="E125" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>346</v>
-      </c>
       <c r="F125" s="0" t="s">
         <v>20</v>
       </c>
@@ -5328,25 +5331,25 @@
         <v>14</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>3271</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>1981</v>
+        <v>1991</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="D126" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="F126" s="0" t="s">
         <v>20</v>
       </c>
@@ -5354,25 +5357,22 @@
         <v>14</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>3281</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="B127" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D127" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>350</v>
-      </c>
       <c r="F127" s="0" t="s">
         <v>20</v>
       </c>
@@ -5380,22 +5380,22 @@
         <v>14</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>3291</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B128" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>352</v>
-      </c>
       <c r="F128" s="0" t="s">
         <v>20</v>
       </c>
@@ -5403,20 +5403,23 @@
         <v>14</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>3301</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="B129" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D129" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="E129" s="0" t="s">
         <v>354</v>
       </c>
       <c r="F129" s="0" t="s">
@@ -5426,15 +5429,15 @@
         <v>14</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>3311</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>2021</v>
+        <v>1</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>355</v>
@@ -5452,15 +5455,18 @@
         <v>14</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>3321</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>358</v>
@@ -5468,9 +5474,6 @@
       <c r="D131" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="E131" s="0" t="s">
-        <v>360</v>
-      </c>
       <c r="F131" s="0" t="s">
         <v>20</v>
       </c>
@@ -5478,23 +5481,26 @@
         <v>14</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I131" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>1531</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B132" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="E132" s="0" t="s">
         <v>362</v>
       </c>
       <c r="F132" s="0" t="s">
@@ -5515,16 +5521,19 @@
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>363</v>
       </c>
+      <c r="C133" s="0" t="s">
+        <v>364</v>
+      </c>
       <c r="D133" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>20</v>
@@ -5544,12 +5553,9 @@
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>251</v>
+        <v>2031</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="C134" s="0" t="s">
         <v>367</v>
       </c>
       <c r="D134" s="0" t="s">
@@ -5565,28 +5571,25 @@
         <v>14</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>1691</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
-        <v>2031</v>
+        <v>2041</v>
       </c>
       <c r="B135" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D135" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>372</v>
-      </c>
       <c r="F135" s="0" t="s">
         <v>20</v>
       </c>
@@ -5594,24 +5597,24 @@
         <v>14</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>3331</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>2041</v>
+        <v>2051</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>20</v>
@@ -5620,25 +5623,25 @@
         <v>14</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>3341</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>2051</v>
+        <v>2061</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D137" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="E137" s="0" t="s">
-        <v>375</v>
-      </c>
       <c r="F137" s="0" t="s">
         <v>20</v>
       </c>
@@ -5646,24 +5649,27 @@
         <v>14</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>3351</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>2061</v>
+        <v>281</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>123</v>
+        <v>375</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>376</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>20</v>
@@ -5672,20 +5678,20 @@
         <v>14</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>3361</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C139" s="0" t="s">
         <v>379</v>
       </c>
       <c r="D139" s="0" t="s">
@@ -5712,7 +5718,7 @@
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>291</v>
+        <v>2071</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>382</v>
@@ -5730,18 +5736,15 @@
         <v>14</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>1701</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>385</v>
@@ -5759,15 +5762,15 @@
         <v>14</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>3371</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>2081</v>
+        <v>2091</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>388</v>
@@ -5785,25 +5788,25 @@
         <v>14</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>3381</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>2091</v>
+        <v>301</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="E143" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E143" s="0" t="s">
-        <v>393</v>
-      </c>
       <c r="F143" s="0" t="s">
         <v>20</v>
       </c>
@@ -5811,18 +5814,21 @@
         <v>14</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>3391</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>128</v>
+        <v>393</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>394</v>
@@ -5848,16 +5854,13 @@
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B145" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>398</v>
       </c>
       <c r="F145" s="0" t="s">
         <v>20</v>
@@ -5877,12 +5880,15 @@
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
-        <v>321</v>
+        <v>2101</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>30</v>
+        <v>397</v>
       </c>
       <c r="D146" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E146" s="0" t="s">
         <v>399</v>
       </c>
       <c r="F146" s="0" t="s">
@@ -5892,18 +5898,15 @@
         <v>14</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>1711</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>2101</v>
+        <v>2111</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>400</v>
@@ -5915,78 +5918,78 @@
         <v>402</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>3401</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
-        <v>2111</v>
+        <v>2121</v>
       </c>
       <c r="B148" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="F148" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="D148" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>406</v>
-      </c>
       <c r="G148" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>1531</v>
+        <v>821</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
-        <v>2121</v>
+        <v>2131</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>821</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
-        <v>2131</v>
+        <v>2141</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>16</v>
+        <v>407</v>
       </c>
       <c r="D150" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E150" s="0" t="s">
         <v>409</v>
       </c>
       <c r="F150" s="0" t="s">
@@ -5996,15 +5999,15 @@
         <v>14</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>3431</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
-        <v>2141</v>
+        <v>2151</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>410</v>
@@ -6016,73 +6019,73 @@
         <v>412</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G151" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>3441</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
-        <v>2151</v>
+        <v>2191</v>
       </c>
       <c r="B152" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="D152" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="E152" s="0" t="s">
-        <v>415</v>
-      </c>
       <c r="F152" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G152" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>3451</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
-        <v>2191</v>
+        <v>2221</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>128</v>
+        <v>414</v>
       </c>
       <c r="D153" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E153" s="0" t="s">
         <v>416</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I153" s="0" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>3101</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
-        <v>2221</v>
+        <v>10011</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>417</v>
@@ -6090,80 +6093,83 @@
       <c r="D154" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="E154" s="0" t="s">
-        <v>419</v>
-      </c>
       <c r="F154" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G154" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>3471</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
-        <v>10011</v>
+        <v>10031</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>420</v>
+        <v>30</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G155" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>3481</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
-        <v>10031</v>
+        <v>10041</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>30</v>
+        <v>262</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>420</v>
       </c>
       <c r="D156" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I156" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="F156" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="J156" s="0" t="n">
-        <v>2471</v>
+        <v>3491</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
-        <v>10041</v>
+        <v>10051</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C157" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D157" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>424</v>
       </c>
       <c r="F157" s="0" t="s">
         <v>13</v>
@@ -6174,9 +6180,6 @@
       <c r="H157" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I157" s="0" t="s">
-        <v>425</v>
-      </c>
       <c r="J157" s="0" t="n">
         <v>3491</v>
       </c>
@@ -6186,65 +6189,65 @@
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
-        <v>10051</v>
+        <v>10061</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>3491</v>
+        <v>1681</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>161</v>
+        <v>691</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
-        <v>10061</v>
+        <v>10071</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>133</v>
+        <v>425</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>1681</v>
+        <v>2471</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>691</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
-        <v>10071</v>
+        <v>10081</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>428</v>
+        <v>105</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>13</v>
@@ -6262,14 +6265,17 @@
         <v>371</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
-        <v>10081</v>
+        <v>10131</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>105</v>
+        <v>428</v>
       </c>
       <c r="D161" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E161" s="0" t="s">
         <v>430</v>
       </c>
       <c r="F161" s="0" t="s">
@@ -6279,18 +6285,18 @@
         <v>14</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>2471</v>
+        <v>3501</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>371</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
-        <v>10131</v>
+        <v>10141</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>431</v>
@@ -6302,24 +6308,24 @@
         <v>433</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G162" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>3501</v>
+        <v>3511</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
-        <v>10141</v>
+        <v>10151</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>434</v>
@@ -6327,33 +6333,33 @@
       <c r="D163" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="F163" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <v>3521</v>
+      </c>
+      <c r="K163" s="0" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>10161</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="F163" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H163" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="J163" s="0" t="n">
-        <v>3511</v>
-      </c>
-      <c r="K163" s="0" t="n">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
-        <v>10151</v>
-      </c>
-      <c r="B164" s="0" t="s">
+      <c r="D164" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="E164" s="0" t="s">
         <v>438</v>
       </c>
       <c r="F164" s="0" t="s">
@@ -6363,46 +6369,18 @@
         <v>14</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>3521</v>
+        <v>3531</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
-        <v>10161</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="F165" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H165" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="J165" s="0" t="n">
-        <v>3531</v>
-      </c>
-      <c r="K165" s="0" t="n">
         <v>841</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:J149"/>
+  <autoFilter ref="A1:J148"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6419,10 +6397,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6469,19 +6447,19 @@
         <v>461</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>445</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -6498,19 +6476,19 @@
         <v>471</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2</v>
@@ -6527,19 +6505,19 @@
         <v>481</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>3</v>
@@ -6559,16 +6537,16 @@
         <v>207</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>3</v>
@@ -6585,16 +6563,16 @@
         <v>501</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>4</v>
@@ -6611,19 +6589,19 @@
         <v>511</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>5</v>
@@ -6643,13 +6621,13 @@
         <v>89</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>5</v>
@@ -6666,19 +6644,19 @@
         <v>331</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>6</v>
@@ -6695,16 +6673,16 @@
         <v>341</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>6</v>
@@ -6721,19 +6699,19 @@
         <v>531</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>7</v>
@@ -6747,22 +6725,22 @@
         <v>541</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>470</v>
-      </c>
       <c r="F12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>8</v>
@@ -6779,19 +6757,19 @@
         <v>551</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>8</v>
@@ -6811,16 +6789,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>9</v>
@@ -6840,16 +6818,16 @@
         <v>204</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>10</v>
@@ -6866,16 +6844,16 @@
         <v>361</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>10</v>
@@ -6892,19 +6870,19 @@
         <v>571</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>10</v>
@@ -6921,19 +6899,19 @@
         <v>571</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>11</v>
@@ -6950,19 +6928,19 @@
         <v>591</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>486</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>11</v>
@@ -6974,21 +6952,24 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>371</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>489</v>
+        <v>486</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>487</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>12</v>
@@ -7005,19 +6986,19 @@
         <v>381</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>236</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>12</v>
@@ -7034,19 +7015,19 @@
         <v>601</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>494</v>
-      </c>
       <c r="F22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>12</v>
@@ -7069,13 +7050,13 @@
         <v>191</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>13</v>
@@ -7092,16 +7073,16 @@
         <v>401</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>13</v>
@@ -7118,19 +7099,19 @@
         <v>411</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>500</v>
-      </c>
       <c r="F25" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>13</v>
@@ -7147,19 +7128,19 @@
         <v>611</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>13</v>
@@ -7176,19 +7157,19 @@
         <v>621</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>505</v>
-      </c>
       <c r="F27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>13</v>
@@ -7208,13 +7189,13 @@
         <v>159</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>14</v>
@@ -7231,19 +7212,19 @@
         <v>641</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>15</v>
@@ -7260,16 +7241,16 @@
         <v>651</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>16</v>
@@ -7286,16 +7267,16 @@
         <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>17</v>
@@ -7312,19 +7293,19 @@
         <v>61</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>17</v>
@@ -7341,19 +7322,19 @@
         <v>71</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>517</v>
-      </c>
       <c r="F33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>17</v>
@@ -7370,16 +7351,16 @@
         <v>661</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>18</v>
@@ -7399,13 +7380,13 @@
         <v>112</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>19</v>
@@ -7422,19 +7403,19 @@
         <v>681</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>20</v>
@@ -7454,16 +7435,16 @@
         <v>159</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>21</v>
@@ -7483,16 +7464,16 @@
         <v>128</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>22</v>
@@ -7512,16 +7493,16 @@
         <v>143</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>23</v>
@@ -7538,19 +7519,19 @@
         <v>721</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="F40" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>24</v>
@@ -7567,19 +7548,19 @@
         <v>731</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="F41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>24</v>
@@ -7596,19 +7577,19 @@
         <v>741</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>536</v>
-      </c>
       <c r="F42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>25</v>
@@ -7625,19 +7606,19 @@
         <v>751</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>539</v>
-      </c>
       <c r="F43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>26</v>
@@ -7657,16 +7638,16 @@
         <v>128</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>26</v>
@@ -7686,16 +7667,16 @@
         <v>138</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>27</v>
@@ -7712,19 +7693,19 @@
         <v>781</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>546</v>
-      </c>
       <c r="F46" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>27</v>
@@ -7741,19 +7722,19 @@
         <v>791</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>28</v>
@@ -7770,19 +7751,19 @@
         <v>801</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>551</v>
-      </c>
       <c r="F48" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>29</v>
@@ -7799,19 +7780,19 @@
         <v>811</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>554</v>
-      </c>
       <c r="F49" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>30</v>
@@ -7828,19 +7809,19 @@
         <v>421</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>557</v>
-      </c>
       <c r="F50" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>31</v>
@@ -7857,19 +7838,19 @@
         <v>431</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>31</v>
@@ -7886,19 +7867,19 @@
         <v>821</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>562</v>
-      </c>
       <c r="F52" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>32</v>
@@ -7915,19 +7896,19 @@
         <v>831</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>565</v>
-      </c>
       <c r="F53" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>33</v>
@@ -7947,16 +7928,16 @@
         <v>16</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>33</v>
@@ -7973,19 +7954,19 @@
         <v>851</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>570</v>
-      </c>
       <c r="F55" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>34</v>
@@ -8002,19 +7983,19 @@
         <v>441</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>573</v>
-      </c>
       <c r="F56" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>35</v>
@@ -8031,22 +8012,22 @@
         <v>451</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="E57" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>577</v>
-      </c>
       <c r="F57" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>35</v>
@@ -8066,16 +8047,16 @@
         <v>33</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>36</v>
@@ -8095,16 +8076,16 @@
         <v>171</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>37</v>
@@ -8121,19 +8102,19 @@
         <v>881</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>38</v>
@@ -8150,16 +8131,16 @@
         <v>891</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>39</v>
@@ -8176,19 +8157,19 @@
         <v>901</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>40</v>
@@ -8202,19 +8183,19 @@
         <v>2161</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>590</v>
-      </c>
       <c r="F63" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>11</v>
@@ -8231,19 +8212,19 @@
         <v>2171</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="F64" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>17</v>
@@ -8260,16 +8241,16 @@
         <v>2181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>13</v>
@@ -8286,19 +8267,19 @@
         <v>2201</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>598</v>
-      </c>
       <c r="F66" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>7</v>
@@ -8315,19 +8296,19 @@
         <v>2211</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>162</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>24</v>
@@ -8347,16 +8328,16 @@
         <v>24</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>40</v>
@@ -8376,13 +8357,13 @@
         <v>140</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>40</v>
@@ -8399,19 +8380,19 @@
         <v>10091</v>
       </c>
       <c r="B70" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>606</v>
-      </c>
       <c r="F70" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>7</v>
@@ -8428,19 +8409,19 @@
         <v>10101</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>609</v>
-      </c>
       <c r="F71" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>10</v>
@@ -8457,16 +8438,16 @@
         <v>10111</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>15</v>
@@ -8486,13 +8467,13 @@
         <v>47</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>28</v>
@@ -8502,6 +8483,35 @@
       </c>
       <c r="K73" s="0" t="n">
         <v>1401</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>1741</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>1241</v>
       </c>
     </row>
   </sheetData>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\code\vaelects\db_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED384D4E-C5F0-4E51-B95B-2C8D019479CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4B4D0-88FB-4877-A9B9-26A22BD0CD1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="644">
   <si>
     <t>id</t>
   </si>
@@ -1965,6 +1965,12 @@
   </si>
   <si>
     <t>https://losifordelegate.com/</t>
+  </si>
+  <si>
+    <t>Karrent</t>
+  </si>
+  <si>
+    <t>Torrent</t>
   </si>
 </sst>
 </file>
@@ -7006,10 +7012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9225,6 +9231,32 @@
       </c>
       <c r="K78">
         <v>1451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>10311</v>
+      </c>
+      <c r="B79" t="s">
+        <v>642</v>
+      </c>
+      <c r="D79" t="s">
+        <v>643</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79">
+        <v>35</v>
+      </c>
+      <c r="J79">
+        <v>1771</v>
+      </c>
+      <c r="K79">
+        <v>1471</v>
       </c>
     </row>
   </sheetData>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\code\vaelects\db_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4B4D0-88FB-4877-A9B9-26A22BD0CD1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14E8DB-05A8-4F21-AB74-40C10A608619}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vahouse" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="645">
   <si>
     <t>id</t>
   </si>
@@ -1971,6 +1971,9 @@
   </si>
   <si>
     <t>Torrent</t>
+  </si>
+  <si>
+    <t>McGinn</t>
   </si>
 </sst>
 </file>
@@ -2401,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView topLeftCell="F149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J165" activeCellId="1" sqref="A165:A174 J165:J174"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7003,6 +7006,29 @@
         <v>941</v>
       </c>
     </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175" t="s">
+        <v>644</v>
+      </c>
+      <c r="F175" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175">
+        <v>13</v>
+      </c>
+      <c r="J175">
+        <v>2881</v>
+      </c>
+      <c r="K175">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7014,7 +7040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\code\vaelects\db_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14E8DB-05A8-4F21-AB74-40C10A608619}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9591911-7422-4AEA-80CD-26FB324AC84B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vahouse" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="646">
   <si>
     <t>id</t>
   </si>
@@ -1974,24 +1974,19 @@
   </si>
   <si>
     <t>McGinn</t>
+  </si>
+  <si>
+    <t>WITHDREW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2014,16 +2009,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2406,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I169" sqref="I169"/>
+    <sheetView topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7007,6 +6999,9 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>10321</v>
+      </c>
       <c r="B175" t="s">
         <v>53</v>
       </c>
@@ -7040,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7645,10 +7640,7 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21">
-        <v>1741</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -8858,7 +8850,7 @@
       <c r="D64" t="s">
         <v>590</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>591</v>
       </c>
       <c r="F64" t="s">
@@ -9286,9 +9278,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E64" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -2073,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J100" activeCellId="0" sqref="J100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I111" activeCellId="0" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4684,7 +4684,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>1471</v>
       </c>
@@ -4708,9 +4708,6 @@
       </c>
       <c r="I100" s="0" t="s">
         <v>270</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <v>2791</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,7 +4947,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>241</v>
       </c>
@@ -4972,8 +4969,8 @@
       <c r="H110" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="I110" s="0" t="s">
-        <v>15</v>
+      <c r="I110" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/db_resources/candidate_tracker.xlsx
+++ b/db_resources/candidate_tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vahouse" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="646">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1962,7 +1962,7 @@
     <t xml:space="preserve">Suzanne</t>
   </si>
   <si>
-    <t xml:space="preserve">Karrent</t>
+    <t xml:space="preserve">Karren</t>
   </si>
   <si>
     <t xml:space="preserve">Torrent</t>
@@ -2073,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I111" activeCellId="0" sqref="I111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B158" activeCellId="0" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6717,10 +6717,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P76" activeCellId="0" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8935,7 +8935,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>10311</v>
       </c>
@@ -8959,6 +8959,29 @@
       </c>
       <c r="K79" s="0" t="n">
         <v>1471</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>10331</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>2161</v>
       </c>
     </row>
   </sheetData>
